--- a/Assets/Data/Template.xlsx
+++ b/Assets/Data/Template.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,25 +540,49 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Antônio</t>
+          <t>Erick</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>394857</v>
+        <v>948756</v>
       </c>
       <c r="C5" t="n">
-        <v>934857</v>
+        <v>398476</v>
       </c>
       <c r="D5" t="n">
-        <v>23948576</v>
+        <v>3948756</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>antonioamasilio@gmail.com</t>
+          <t>erick69@gmail.com</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>934875</v>
+        <v>934875432</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pedro Antônio</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>39487</v>
+      </c>
+      <c r="C6" t="n">
+        <v>98476</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9487</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>pant@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3984765</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Template.xlsx
+++ b/Assets/Data/Template.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,49 +540,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Erick</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>948756</v>
+        <v>9384756</v>
       </c>
       <c r="C5" t="n">
-        <v>398476</v>
+        <v>98475</v>
       </c>
       <c r="D5" t="n">
-        <v>3948756</v>
+        <v>7465</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>erick69@gmail.com</t>
+          <t>victornjg@gmail.com</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>934875432</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pedro Antônio</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>39487</v>
-      </c>
-      <c r="C6" t="n">
-        <v>98476</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9487</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>pant@gmail.com</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3984765</v>
+        <v>349847562</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Template.xlsx
+++ b/Assets/Data/Template.xlsx
@@ -540,25 +540,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9384756</v>
-      </c>
-      <c r="C5" t="n">
-        <v>98475</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7465</v>
+          <t>Victor Nascimento</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>934856</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>9487</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4987</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>victornjg@gmail.com</t>
+          <t>victornascimento@gmail.com</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>349847562</v>
+        <v>344557543</v>
       </c>
     </row>
   </sheetData>
